--- a/biology/Botanique/Linum/Linum.xlsx
+++ b/biology/Botanique/Linum/Linum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linum (les lins) est un genre de plantes à fleurs dicotylédones de la famille des Linaceae. 
 Ce genre compte près de 200 espèces présentes surtout dans les régions tempérées et subtropicales de l'hémisphère nord.
@@ -513,7 +525,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Linum alpinum Jacq. - lin des Alpes
@@ -567,9 +581,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (13 avril 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (13 avril 2016) :
 Linum acuticarpum C.M. Rogers
 Linum adustum E. Mey. ex Planch.
 Linum aethiopicum Thunb.
@@ -753,7 +769,7 @@
 Linum volkensii Engl.
 Linum vuralianum Yilmaz &amp; Kaynak
 Linum westii C. M. Rogers
-Selon ITIS      (13 avril 2016)[2] :
+Selon ITIS      (13 avril 2016) :
 Linum alatum (Small) H.J.P. Winkl.
 Linum arenicola (Small) H.J.P. Winkl.
 Linum aristatum Engelm.
@@ -819,9 +835,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avril 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avril 2016) :
 Linum africanum
 Linum album
 Linum alpinum
@@ -884,7 +902,7 @@
 Linum vernale
 Linum viscosum
 Linum volkensii
-Selon The Plant List            (13 avril 2016)[4] :
+Selon The Plant List            (13 avril 2016) :
 Linum acuticarpum C.M. Rogers
 Linum adustum E. Mey. Ex Planch.
 Linum aethiopicum Thunb.
@@ -1026,7 +1044,7 @@
 Linum volkensii Engl.
 Linum vuralianum Yılmaz &amp; Kaynak
 Linum westii C.M. Rogers
-Selon Tropicos                                           (13 avril 2016)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 avril 2016) (Attention liste brute contenant possiblement des synonymes) :
 Linum acuticarpum C.M. Rogers
 Linum adenophyllum A. Gray
 Linum adustum E. Mey. ex Planch.
@@ -1272,7 +1290,7 @@
 Linum weberbaueri Krause
 Linum westii C.M. Rogers
 Linum wrightii (Small) H.J.P. Winkl.
-Selon World Register of Marine Species                               (13 avril 2016)[6] :
+Selon World Register of Marine Species                               (13 avril 2016) :
 Linum carteri Small, 1905
 Linum catharticum Linnaeus</t>
         </is>
